--- a/SDVs/SDVs.xlsx
+++ b/SDVs/SDVs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\SDVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1209671-14F3-4359-8C28-8A54945A770F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED18BB83-FEBF-4D82-9E3B-1342F91B05F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="1410" windowWidth="15885" windowHeight="14265" xr2:uid="{48F65717-2712-4319-979D-59E9A5CA4B1D}"/>
+    <workbookView xWindow="-28140" yWindow="2790" windowWidth="19260" windowHeight="15825" xr2:uid="{48F65717-2712-4319-979D-59E9A5CA4B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="batteryCapacity">Sheet1!$C$2</definedName>
     <definedName name="gripLength">Sheet1!$C$3</definedName>
     <definedName name="motorTorque">Sheet1!$C$5</definedName>
-    <definedName name="sprocketAngVel">Sheet1!$C$6</definedName>
+    <definedName name="sprocketRPM">Sheet1!$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
     <t>barLength</t>
   </si>
   <si>
-    <t>sprocketAngVel</t>
+    <t>sprocketRPM</t>
   </si>
 </sst>
 </file>
@@ -435,29 +435,29 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
       </c>

--- a/SDVs/SDVs.xlsx
+++ b/SDVs/SDVs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\SDVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED18BB83-FEBF-4D82-9E3B-1342F91B05F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D9B213-4034-4D6E-92A4-C84144DC2C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28140" yWindow="2790" windowWidth="19260" windowHeight="15825" xr2:uid="{48F65717-2712-4319-979D-59E9A5CA4B1D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{48F65717-2712-4319-979D-59E9A5CA4B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/SDVs/SDVs.xlsx
+++ b/SDVs/SDVs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\SDVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D9B213-4034-4D6E-92A4-C84144DC2C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C93A1-5026-4843-BC5D-FAAA704950F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{48F65717-2712-4319-979D-59E9A5CA4B1D}"/>
+    <workbookView xWindow="-37470" yWindow="465" windowWidth="25830" windowHeight="19215" xr2:uid="{48F65717-2712-4319-979D-59E9A5CA4B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,37 +429,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470DD529-B9DA-4326-91F8-3E7A02BA4C7C}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/SDVs/SDVs.xlsx
+++ b/SDVs/SDVs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\SDVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED18BB83-FEBF-4D82-9E3B-1342F91B05F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C93A1-5026-4843-BC5D-FAAA704950F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28140" yWindow="2790" windowWidth="19260" windowHeight="15825" xr2:uid="{48F65717-2712-4319-979D-59E9A5CA4B1D}"/>
+    <workbookView xWindow="-37470" yWindow="465" windowWidth="25830" windowHeight="19215" xr2:uid="{48F65717-2712-4319-979D-59E9A5CA4B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,37 +429,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470DD529-B9DA-4326-91F8-3E7A02BA4C7C}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
